--- a/BDD_normalisé.xlsx
+++ b/BDD_normalisé.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>félicitations ! avoir être choisir cadeau exceptionnel !</t>
+          <t>félicitation ! avoir être choisir cadeau exceptionnel !</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>offre limitée ! !! - 50 % tous propuit uniquement pendant 2 héure ! !!</t>
+          <t>offre limitée ! !! - 50 % tous propuit uniquer pendant 2 héure ! !!</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>félicitations , être heureux gagnant iphone 15 gratuit ! confirmer adresse livraison ici ➡️ bit.ly / iphonegagnant</t>
+          <t>félicitation , être heureux gagnant iphone 15 gratuit ! confirmer adresse livraison ici ➡️ bit.ly / iphonegagnant</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>félicitations ! avoir être sélectionner recevoir 1000 € gratuit . cliquer vite lien suivant réclamer prix 👉 bit.ly /gain1000</t>
+          <t>félicitation ! avoir être sélectionner recevoir 1000 € gratuit . cliquer vite lien suivant réclamer prix 👉 bit.ly /gain1000</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>### 🔥 offre spécial !# acheter 1 montre recevoir 2 gratuitement ! 🎁 profiter maintenant 👉 bit.ly / montredeal</t>
+          <t>### 🔥 offre spécial !# acheter 1 montrer recevoir 2 gratuitement ! 🎁 profiter maintenant 👉 bit.ly / montredeal</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>💑 recevoir 5 demande rendre 24 h !#### célibataire attendre … inscrire vite avant être trop tard ! bit .ly / inscriptionexpre</t>
+          <t>💑 recevoir 5 demande rendre 24 h !#### célibataire attendre … inscrire vite avant être trop tard ! bit .ly / inscriptionexpress</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>objet : 🎁🎁 gager argent rapidement ! !!! 💰💰### ## 🎉🎉 être gagnant bon cadeau 500 € ! !! avoir 💸💸 cliquer ici maintenant réclamer récompense avoir ➡️➡️ http://gratuit-offre-cadeau.xyz ⬅️⬅️ # ## faire vite , offre limitée</t>
+          <t>objet : 🎁🎁 gager argent rapidement ! !!! 💰💰### ## 🎉🎉 être gagnant bon cadeau 500 € ! !! 🎉🎉 💸💸 cliquer ici maintenant réclamer récompense 💸💸 ➡️➡️ http://gratuit-offre-cadeau.xyz ⬅️⬅️ # ## faité vite , offre limitée</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>félicitations ! avoir être sélectionner offre exclusif gain rapide . manquer chance gagner argent quelque clic ! commencer maintenant : https://easy-money-making.com/start</t>
+          <t>félicitation ! avoir être sélectionner offre exclusif gain rapide . manquer chance gagner argent quelque clic ! commencer maintenant : https://easy-money-making.com/start</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>cher utilisateur , commande avoir être expédier succès . vouloir ouvrir pièce joindre voir récapitulatif confirmation livraison . pièce joindre : commande_détail .exe ( attention , fichier exécutable dangereux )</t>
+          <t>cher utilisateur , commande avoir être expédier succès . vouloir ouvrir pièce joindre voir récapitulatif confirmation livraison . pièce joint : commande_détail .exe ( attention , fichier exécutable dangereux )</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cchlcllient*** , votrecolisestenattenteetpeutêtrerécupérépour********unesommesymbolique ******de 500 € # cliquer immédiatement finaliser transaction recevoir colis gratuitement ! 🔗 finaliser paiement ici : https://shipping-payment.com/checkout</t>
+          <t>#cherclient*** , votrecolisestenattenteetpeutêtrerécupérépour********unesommesymbolique ******de 500 € # cliquer immédiatement finaliser transaction recevoir colis gratuitement ! 🔗 finaliser paiement ici : https://shipping-payment.com/checkout</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>dvouourer comment gagner $ $$$$ facilement 🔥facilement!!!🔥∗∗∗∗ portée main ! apprendre comment pouvoir gagner $$$ $ $ seulement 24 heure ! perdre seconde commencer gagner ! ########## cliquer ici savoir plus : https://easy-money-now.com/start</t>
+          <t>dvouourer comment gagner $ $$$$ facilement 🔥aacilement!🔥🔥∗∗∗∗ portée main ! apprendre comment pouvoir gagner $$$ $ $ seulement 24 heure ! perdre seconde commencer gagner ! ########## cliquer ici savoir plus : https://easy-money-now.com/start</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>🏆 avoir gagner ! !! ##########cliquez ici récupérer prix !!! ** avoir étéchoisipourrecevoirun∗ ∗prixde ! suffire cliquer lien ci-dessous obtenir récompense immédiatement ! réclamer $ $$ $ $ : https://win-big-money.com/claim</t>
+          <t>🏆 avoir gagner ! !! ##########cliquez ici récupérer prix !!! ** avoir étéchoisipourrecener ∗prixde ! suffire cliquer lien ci-dessous obtenir récompense immédiatement ! réclamer $ $$ $ $ : https://win-big-money.com/claim</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bon nouvelle ! avoir vérifier dossier être éligibler remboursement immédiat 500 € . ### # ## 💰 devoir faire ? ✅ clique ici confirmer information ✅ recevoir virement sous 24 h ⏳ attention , offre être valable seulement aujourd'hui . demander remboursement cordialement ,</t>
+          <t>bon nouvelle ! avoir vérifier dossier être éligible remboursement immédiat 500 € . ### # ## 💰 devoir faire ? ✅ clique ici confirmer information ✅ recevoir virement sous 24 h ⏳ attention , offre être valable seulement aujourd'hui . demander remboursement cordialement ,</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bonjour marc , message être rappel concerner remise projet fin étude . date limite soumission être 30 avril 2025 23 h 59 . oublier envoyer projet complet adresse suivant : projet@univ-paris.fr . si avoir question , contacter tuteur projet . cordialement , équipe pédagogique , université lyon</t>
+          <t>bonjour marc , message être rappel concernant remise projet fin étude . date limite soumission être 30 avril 2025 23 h 59 . oublier envoyer projet complet adresse suivant : projet@univ-paris.fr . si avoir question , contacter tuteur projet . cordialement , équipe pédagogique , université lyon</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bonjour sophie , être cordialement inviter assister conférence intelligence artificiel impact société organiser département science informatique . conférence avoir lieu 20 mars 2025 14 h 00 amphithéâtre b , bâtiment c. intervenant être docteur jean dupont , expert ia professeur université bordeaux . espérer voir événement enrichissant ! cordialement , équipe département science informatique , université toulouse</t>
+          <t>bonjour sophie , être cordialement inviter assister conférence intelligence artificiel impact société organiser département science informatique . conférence avoir lieu 20 mars 2025 14 h 00 amphithéâtre b , bâtiment c. intervenant être dr. jean dupont , expert ia professeur université bordeaux . espérer voir événement enrichissant ! cordialement , équipe département science informatique , université toulouse</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>bonjour lucas , félicitations ! avoir plaisir informer candidature programme master informatique avoir être accepter année académique 2025-2026 . voici prochain étape : confirmer inscription avant 15 juin 2025 remplir document administratif ligne assister réunion orientation 25 août 2025 être impatient accueillir université lille . cordialement , équipe admission , université lille</t>
+          <t>bonjour lucas , félicitation ! avoir plaisir informer candidature programme master informatique avoir être accepter année académique 2025-2026 . voici prochain étape : confirmer inscription avant 15 juin 2025 remplir document administratif ligne assister réunion orientation 25 août 2025 être impatient accueillir université lille . cordialement , équipe admission , université lille</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bonjour monsieur lefevre , confirmer rendre médical dr. dupuis être bien prévoir 15 mars 10 h clinique saint-joseph , 45 rue santé , paris . si devoir annuler reprogrammer , vouloir contacter adresse suivant : contact@clinique-saintjoseph.fr . remercier souhaiter excellent journée . cordialement , équipe clinique saint-joseph</t>
+          <t>bonjour monsieur lefevre , confirmer rendre médical docteur dupuis être bien prévoir 15 mars 10 h clinique saint-joseph , 45 rue santé , paris . si devoir annuler reprogrammer , vouloir contacter adresse suivant : contact@clinique-saintjoseph.fr . remercier souhaiter excellent journée . cordialement , équipe clinique saint-joseph</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>bonjour gabriel , rappeler séminaire nouveau méthode pédagogique avoir lieu 20 avril 2025 9 h 00 salle 301 , bâtiment e. intervenant inclure docteur hélène martin , experte pédagogie innovant , prof . michel durand , spécialiste technologie éducatif . encourager vivement participer préparer quelque question discussion . cordialement , équipe pédagogique , université bordeaux</t>
+          <t>bonjour gabriel , rappeler séminaire nouveau méthode pédagogique avoir lieu 20 avril 2025 9 h 00 salle 301 , bâtiment e. intervenant inclure dr. hélène martin , experte pédagogie innovant , prof . michel durand , spécialiste technologie éducatif . encourager vivement participer préparer quelque question discussion . cordialement , équipe pédagogique , université bordeaux</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>bonjour équipe service client techstore , permettre écrire concernant produit avoir acheter site . avoir recevoir commande # 789456 10 mars , ouverture colis , avoir constater smartphone avoir commander être endommager . prier bien vouloir organiser retour produit envoyer modèle bon état , rembourser intégralement somme avoir payer . attente réponse rapide . cordialement , marc dupuis</t>
+          <t>bonjour equipe service client techstore , permettre écrire concernant produit avoir acheter site . avoir recevoir commande # 789456 10 mars , ouverture colis , avoir constater smartphone avoir commander être endommager . prier bien vouloir organiser retour produit envoyer modèle bon état , rembourser intégralement somme avoir payer . attente réponse rapide . cordialement , marc dupuis</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>bonjour monsieur thomas , merci candidature poste développeur logiciel chez microsoft . avoir bien recevoir cv avoir hâter savoir plus lors entretien prévoir 22 mars 10 h 00 via zoom . si avoir question avant entretien , hésiter contacter . cordialement , équipe ressource humain microsoft</t>
+          <t>bonjour monsieur thomas , merci candidature poste développeur logiciel chez microsoft . avoir bien recevoir cv avoir hâte savoir plus lors entretien prévoir 22 mars 10 h 00 via zoom . si avoir question avant entretien , hésiter contacter . cordialement , équipe ressource humain microsoft</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>monsieur , monsieur , écrire faire part candidature poste développeur web avoir récemment publier . fort expérience développement front-end back-end , être convaincre ) compétence pouvoir apporter valeur ajouter équipe . prier bien vouloir trouver ci-joint cv lettre motivation . être disponible entretien convenance . attente retour , adresser salutation respectueux . cordialement ,</t>
+          <t>monsieur , monsieur , écrire faire part candidature poste développeur web avoir récemment publier . fort expérience développement front-end back-end , être convaincue ) compétence pouvoir apporter valeur ajouter équipe . prier bien vouloir trouver ci-joint cv lettre motivation . être disponible entretien convenance . attente retour , adresser salutation respectueux . cordialement ,</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>salut david , ça faire moment soi être voir ! ça dire soi retrouver autour café semaine ? dis-moi quand être dispoir . bientôt , alex</t>
+          <t>salut david , ça faire moment soi être voir ! ça dire soi retrouver autour café semaine ? dis-moi quand être dispo . bientôt , alex</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>félicitations ! 🎉 adresse e-mail avoir être sélectionner recevoir gain exceptionnel 500 000 € loterie annuel . récupérer prix , suffire envoyer nom complet , adresse coordonnée bancaire afin procéder virement immédiat . manquer opportunité unique ! cordialement ,</t>
+          <t>félicitation ! 🎉 adresse e-mail avoir être sélectionner recevoir gain exceptionnel 500 000 € loterie annuel . récupérer prix , suffire envoyer nom complet , adresse coordonnée bancaire afin procéder virement immédiat . manquer opportunité unique ! cordialement ,</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>bonjour , avoir tenter livrer colis aujourd'hui , avoir rencontrer problème . 🚨 éviter tout retour expéditeur , cliquer immédiatement lien ci-dessous mettre jour information livraison . 📥 pouvoir également télécharger bordereau livraison . ⚠️ attention , si répondre 24 heure , commande être annuler . service clients</t>
+          <t>bonjour , avoir tenter livrer colis aujourd'hui , avoir rencontrer problème . 🚨 éviter tout retour expéditeur , cliquer immédiatement lien ci-dessous mettre jour information livraison . 📥 pouvoir également télécharger bordereau livraison . ⚠️ attention , si répondre 24 heure , commande être annuler . service client</t>
         </is>
       </c>
       <c r="B196" t="n">
